--- a/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">

--- a/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
+++ b/Listas de precios/minorista/PASADOR DE ARRIMAR DISMAY.xlsx
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="13">
